--- a/data/trans_orig/P1414-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P1414-Habitat-trans_orig.xlsx
@@ -746,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>5381</v>
+        <v>6946</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.001521882371442828</v>
@@ -755,7 +755,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.007649527691825034</v>
+        <v>0.009873346652651962</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>23</v>
@@ -764,19 +764,19 @@
         <v>23907</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>15552</v>
+        <v>15688</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>34674</v>
+        <v>34903</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.03429734594337801</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.02231142098624234</v>
+        <v>0.02250567871614229</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.04974337740326681</v>
+        <v>0.05007259810862181</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>24</v>
@@ -785,19 +785,19 @@
         <v>24978</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>16254</v>
+        <v>16485</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>37763</v>
+        <v>37107</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01783450449013939</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01160588054792593</v>
+        <v>0.01177028910026128</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.02696373897628753</v>
+        <v>0.02649553350791163</v>
       </c>
     </row>
     <row r="5">
@@ -814,7 +814,7 @@
         <v>702398</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>698088</v>
+        <v>696523</v>
       </c>
       <c r="F5" s="5" t="n">
         <v>703469</v>
@@ -823,7 +823,7 @@
         <v>0.9984781176285572</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.992350472308175</v>
+        <v>0.9901266533473484</v>
       </c>
       <c r="I5" s="6" t="n">
         <v>1</v>
@@ -835,19 +835,19 @@
         <v>673143</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>662376</v>
+        <v>662147</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>681498</v>
+        <v>681362</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.965702654056622</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9502566225967332</v>
+        <v>0.949927401891378</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9776885790137576</v>
+        <v>0.9774943212838577</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1300</v>
@@ -856,19 +856,19 @@
         <v>1375541</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1362756</v>
+        <v>1363412</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1384265</v>
+        <v>1384034</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9821654955098607</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9730362610237124</v>
+        <v>0.9735044664920881</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.988394119452074</v>
+        <v>0.9882297108997387</v>
       </c>
     </row>
     <row r="6">
@@ -960,19 +960,19 @@
         <v>3256</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>9059</v>
+        <v>8688</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.003198589136887248</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.0009914501704667686</v>
+        <v>0.0009883102595075023</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.008899078187722993</v>
+        <v>0.008534908068827755</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>19</v>
@@ -981,19 +981,19 @@
         <v>20806</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>13019</v>
+        <v>13088</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>32232</v>
+        <v>31686</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.02022028927265885</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.01265259068116948</v>
+        <v>0.01271960953484818</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.03132435587948444</v>
+        <v>0.03079361870556818</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>22</v>
@@ -1002,19 +1002,19 @@
         <v>24062</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>15337</v>
+        <v>15287</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>35714</v>
+        <v>35339</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.01175528494341212</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.007492615896059453</v>
+        <v>0.007468492904697102</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.01744790238234803</v>
+        <v>0.01726453413366721</v>
       </c>
     </row>
     <row r="8">
@@ -1031,19 +1031,19 @@
         <v>1014691</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1008888</v>
+        <v>1009259</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1016938</v>
+        <v>1016941</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9968014108631128</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.991100921812277</v>
+        <v>0.9914650919311723</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9990085498295332</v>
+        <v>0.9990116897404926</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>919</v>
@@ -1052,19 +1052,19 @@
         <v>1008167</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>996741</v>
+        <v>997287</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1015954</v>
+        <v>1015885</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9797797107273412</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9686756441205154</v>
+        <v>0.9692063812944318</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9873474093188305</v>
+        <v>0.9872803904651518</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1852</v>
@@ -1073,19 +1073,19 @@
         <v>2022859</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>2011207</v>
+        <v>2011582</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>2031584</v>
+        <v>2031634</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9882447150565878</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9825520976176522</v>
+        <v>0.982735465866333</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9925073841039406</v>
+        <v>0.9925315070953029</v>
       </c>
     </row>
     <row r="9">
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>5221</v>
+        <v>5888</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.001373588414955334</v>
@@ -1189,7 +1189,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.006891744898499464</v>
+        <v>0.007771124841880054</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>14</v>
@@ -1198,19 +1198,19 @@
         <v>16519</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>9623</v>
+        <v>9173</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>27465</v>
+        <v>28397</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.02125515898786371</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01238199995797546</v>
+        <v>0.01180351573046926</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.03533936950618963</v>
+        <v>0.03653843828764441</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>15</v>
@@ -1219,19 +1219,19 @@
         <v>17560</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>10470</v>
+        <v>9609</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>29486</v>
+        <v>28049</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01144100229811908</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.006821742100529994</v>
+        <v>0.006260973247522418</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01921169130631106</v>
+        <v>0.01827537868543875</v>
       </c>
     </row>
     <row r="11">
@@ -1248,7 +1248,7 @@
         <v>756582</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>752402</v>
+        <v>751735</v>
       </c>
       <c r="F11" s="5" t="n">
         <v>757623</v>
@@ -1257,7 +1257,7 @@
         <v>0.9986264115850446</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9931082551015006</v>
+        <v>0.992228875158122</v>
       </c>
       <c r="I11" s="6" t="n">
         <v>1</v>
@@ -1269,19 +1269,19 @@
         <v>760655</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>749709</v>
+        <v>748777</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>767551</v>
+        <v>768001</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9787448410121363</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9646606304938108</v>
+        <v>0.9634615617123562</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9876180000420246</v>
+        <v>0.9881964842695311</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1379</v>
@@ -1290,19 +1290,19 @@
         <v>1517237</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1505311</v>
+        <v>1506748</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1524327</v>
+        <v>1525188</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9885589977018809</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9807883086936893</v>
+        <v>0.9817246213145612</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9931782578994708</v>
+        <v>0.9937390267524775</v>
       </c>
     </row>
     <row r="12">
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>7398</v>
+        <v>7134</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.002127855045772275</v>
@@ -1406,7 +1406,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.007806145026537981</v>
+        <v>0.00752717160970823</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>30</v>
@@ -1415,19 +1415,19 @@
         <v>31559</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>21467</v>
+        <v>22699</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>45065</v>
+        <v>44829</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.03002909273102919</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.02042701187834966</v>
+        <v>0.02159914379826061</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.0428806369853907</v>
+        <v>0.04265623774209028</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>32</v>
@@ -1436,19 +1436,19 @@
         <v>33575</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>22305</v>
+        <v>23992</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>46630</v>
+        <v>46974</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01679876883885077</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01116008218664485</v>
+        <v>0.01200419285526369</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.02333052586790834</v>
+        <v>0.02350236127205796</v>
       </c>
     </row>
     <row r="14">
@@ -1465,7 +1465,7 @@
         <v>945722</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>940341</v>
+        <v>940605</v>
       </c>
       <c r="F14" s="5" t="n">
         <v>947739</v>
@@ -1474,7 +1474,7 @@
         <v>0.9978721449542277</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9921938549734618</v>
+        <v>0.9924728283902918</v>
       </c>
       <c r="I14" s="6" t="n">
         <v>1</v>
@@ -1486,19 +1486,19 @@
         <v>1019375</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>1005869</v>
+        <v>1006105</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>1029467</v>
+        <v>1028235</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9699709072689708</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9571193630146089</v>
+        <v>0.9573437622579097</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9795729881216504</v>
+        <v>0.9784008562017391</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1880</v>
@@ -1507,19 +1507,19 @@
         <v>1965099</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1952044</v>
+        <v>1951700</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1976369</v>
+        <v>1974682</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9832012311611492</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9766694741320917</v>
+        <v>0.976497638727942</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9888399178133552</v>
+        <v>0.9879958071447364</v>
       </c>
     </row>
     <row r="15">
@@ -1611,19 +1611,19 @@
         <v>7384</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>3146</v>
+        <v>3143</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>14849</v>
+        <v>15378</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.002154765960687546</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.0009179831695049705</v>
+        <v>0.0009172648221282471</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.00433333070919853</v>
+        <v>0.004487461141664699</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>86</v>
@@ -1632,19 +1632,19 @@
         <v>92791</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>74157</v>
+        <v>73392</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>112555</v>
+        <v>114129</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.02610782992261705</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.02086508708477759</v>
+        <v>0.02064985319876697</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.03166870819318109</v>
+        <v>0.03211161865515254</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>93</v>
@@ -1653,19 +1653,19 @@
         <v>100175</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>80711</v>
+        <v>80016</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>122539</v>
+        <v>121617</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01434978620531129</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01156168232511557</v>
+        <v>0.01146217686593146</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.01755341501983893</v>
+        <v>0.01742135899156947</v>
       </c>
     </row>
     <row r="17">
@@ -1682,19 +1682,19 @@
         <v>3419395</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3411930</v>
+        <v>3411401</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3423633</v>
+        <v>3423636</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9978452340393125</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9956666692908015</v>
+        <v>0.9955125388583318</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.999082016830495</v>
+        <v>0.9990827351778718</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3209</v>
@@ -1703,19 +1703,19 @@
         <v>3461341</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3441577</v>
+        <v>3440003</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3479975</v>
+        <v>3480740</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9738921700773829</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9683312918068189</v>
+        <v>0.9678883813448472</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9791349129152223</v>
+        <v>0.979350146801233</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6411</v>
@@ -1724,19 +1724,19 @@
         <v>6880736</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6858372</v>
+        <v>6859294</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6900200</v>
+        <v>6900895</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9856502137946888</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9824465849801606</v>
+        <v>0.9825786410084305</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9884383176748843</v>
+        <v>0.9885378231340685</v>
       </c>
     </row>
     <row r="18">
@@ -2068,19 +2068,19 @@
         <v>3187</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>1026</v>
+        <v>1020</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>8520</v>
+        <v>8533</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.004723555231684678</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.001519836964389828</v>
+        <v>0.001512255853858763</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.01262535107778434</v>
+        <v>0.01264452929258969</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>25</v>
@@ -2089,19 +2089,19 @@
         <v>25567</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>16649</v>
+        <v>17002</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>37420</v>
+        <v>36787</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.03799870375863534</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.02474514362821026</v>
+        <v>0.02526942389588413</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.05561438771400649</v>
+        <v>0.05467476477138535</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>28</v>
@@ -2110,19 +2110,19 @@
         <v>28754</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>19604</v>
+        <v>19481</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>40600</v>
+        <v>42214</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02133691951341161</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01454664652653864</v>
+        <v>0.01445560915861938</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.03012708177680857</v>
+        <v>0.03132449426492492</v>
       </c>
     </row>
     <row r="5">
@@ -2139,19 +2139,19 @@
         <v>671613</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>666280</v>
+        <v>666267</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>673774</v>
+        <v>673780</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9952764447683153</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9873746489222157</v>
+        <v>0.9873554707074103</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9984801630356102</v>
+        <v>0.9984877441461412</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>641</v>
@@ -2160,19 +2160,19 @@
         <v>647272</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>635419</v>
+        <v>636052</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>656190</v>
+        <v>655837</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9620012962413647</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9443856122859935</v>
+        <v>0.9453252352286147</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9752548563717894</v>
+        <v>0.9747305761041157</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1290</v>
@@ -2181,19 +2181,19 @@
         <v>1318885</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1307039</v>
+        <v>1305425</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1328035</v>
+        <v>1328158</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9786630804865883</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9698729182231913</v>
+        <v>0.968675505735075</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9854533534734614</v>
+        <v>0.9855443908413802</v>
       </c>
     </row>
     <row r="6">
@@ -2285,19 +2285,19 @@
         <v>3299</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>1021</v>
+        <v>1017</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>8983</v>
+        <v>9891</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.003226395401524554</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.0009990568797216377</v>
+        <v>0.0009942669955789552</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.008785897737073011</v>
+        <v>0.009673603785502763</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>36</v>
@@ -2306,19 +2306,19 @@
         <v>39926</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>27806</v>
+        <v>27680</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>54192</v>
+        <v>55710</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.03828293277515793</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.02666147531476807</v>
+        <v>0.02654086650830922</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.05196229728736802</v>
+        <v>0.05341792363461003</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>39</v>
@@ -2327,19 +2327,19 @@
         <v>43225</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>30749</v>
+        <v>31606</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>57770</v>
+        <v>58053</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.02092849187621676</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01488814343203506</v>
+        <v>0.01530310329980964</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.02797108302925443</v>
+        <v>0.02810823317376333</v>
       </c>
     </row>
     <row r="8">
@@ -2356,19 +2356,19 @@
         <v>1019132</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1013448</v>
+        <v>1012540</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1021410</v>
+        <v>1021414</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9967736045984754</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9912141022629271</v>
+        <v>0.9903263962144973</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9990009431202784</v>
+        <v>0.9990057330044211</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>941</v>
@@ -2377,19 +2377,19 @@
         <v>1002987</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>988721</v>
+        <v>987203</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1015107</v>
+        <v>1015233</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9617170672248421</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.948037702712632</v>
+        <v>0.9465820763653889</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.973338524685232</v>
+        <v>0.9734591334916904</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1889</v>
@@ -2398,19 +2398,19 @@
         <v>2022119</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>2007574</v>
+        <v>2007291</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>2034595</v>
+        <v>2033738</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9790715081237832</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.972028916970746</v>
+        <v>0.9718917668262363</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9851118565679651</v>
+        <v>0.9846968967001903</v>
       </c>
     </row>
     <row r="9">
@@ -2505,7 +2505,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>6967</v>
+        <v>7096</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.002666928996409415</v>
@@ -2514,7 +2514,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.009172723993544773</v>
+        <v>0.009342066765301483</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>23</v>
@@ -2523,19 +2523,19 @@
         <v>25340</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>16307</v>
+        <v>17474</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>36556</v>
+        <v>38893</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.03227938428512116</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.02077256371545418</v>
+        <v>0.02225895836785674</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.04656795755039683</v>
+        <v>0.04954416888290336</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>25</v>
@@ -2544,19 +2544,19 @@
         <v>27365</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>18308</v>
+        <v>18396</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>39719</v>
+        <v>40578</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01771720383278919</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01185323716377597</v>
+        <v>0.01191039123055375</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.02571553422739523</v>
+        <v>0.02627132763256297</v>
       </c>
     </row>
     <row r="11">
@@ -2573,7 +2573,7 @@
         <v>757526</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>752585</v>
+        <v>752456</v>
       </c>
       <c r="F11" s="5" t="n">
         <v>759552</v>
@@ -2582,7 +2582,7 @@
         <v>0.9973330710035906</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9908272760064553</v>
+        <v>0.9906579332346988</v>
       </c>
       <c r="I11" s="6" t="n">
         <v>1</v>
@@ -2594,19 +2594,19 @@
         <v>759671</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>748455</v>
+        <v>746118</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>768704</v>
+        <v>767537</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9677206157148789</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9534320424496037</v>
+        <v>0.9504558311170954</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.979227436284546</v>
+        <v>0.9777410416321431</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1407</v>
@@ -2615,19 +2615,19 @@
         <v>1517198</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1504844</v>
+        <v>1503985</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1526255</v>
+        <v>1526167</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9822827961672108</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9742844657726047</v>
+        <v>0.973728672367437</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9881467628362239</v>
+        <v>0.9880896087694462</v>
       </c>
     </row>
     <row r="12">
@@ -2719,19 +2719,19 @@
         <v>5536</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>1986</v>
+        <v>1982</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>12323</v>
+        <v>13603</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.005904557768021932</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.00211807017792884</v>
+        <v>0.002114343201547611</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.01314411633753264</v>
+        <v>0.01450829657076037</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>31</v>
@@ -2740,19 +2740,19 @@
         <v>34236</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>23192</v>
+        <v>24609</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>47273</v>
+        <v>48324</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.03279975082948181</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.02221952828266269</v>
+        <v>0.02357653631526518</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.04529005909953787</v>
+        <v>0.04629711160363362</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>36</v>
@@ -2761,19 +2761,19 @@
         <v>39772</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>29084</v>
+        <v>28947</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>54993</v>
+        <v>54299</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.02007302601746109</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01467896935267813</v>
+        <v>0.01460966812157329</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.02775559804173948</v>
+        <v>0.02740527509374435</v>
       </c>
     </row>
     <row r="14">
@@ -2790,19 +2790,19 @@
         <v>932031</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>925244</v>
+        <v>923964</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>935581</v>
+        <v>935585</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9940954422319781</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9868558836624672</v>
+        <v>0.9854917034292395</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9978819298220711</v>
+        <v>0.9978856567984524</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>928</v>
@@ -2811,19 +2811,19 @@
         <v>1009543</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>996506</v>
+        <v>995455</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>1020587</v>
+        <v>1019170</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9672002491705182</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9547099409004622</v>
+        <v>0.9537028883963664</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9777804717173373</v>
+        <v>0.9764234636847349</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1855</v>
@@ -2832,19 +2832,19 @@
         <v>1941574</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1926353</v>
+        <v>1927047</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1952262</v>
+        <v>1952399</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9799269739825389</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9722444019582603</v>
+        <v>0.9725947249062555</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9853210306473218</v>
+        <v>0.9853903318784267</v>
       </c>
     </row>
     <row r="15">
@@ -2936,19 +2936,19 @@
         <v>14048</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>8055</v>
+        <v>8155</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>24409</v>
+        <v>24824</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.004138586461645745</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.00237301787293677</v>
+        <v>0.002402462093083077</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.007190930876288585</v>
+        <v>0.00731319194410314</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>115</v>
@@ -2957,19 +2957,19 @@
         <v>125068</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>104032</v>
+        <v>104376</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>147255</v>
+        <v>150003</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.03528471124228898</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.02934984007914337</v>
+        <v>0.02944684492822989</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.04154414927234137</v>
+        <v>0.04231941153435369</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>128</v>
@@ -2978,19 +2978,19 @@
         <v>139116</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>115955</v>
+        <v>118088</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>164383</v>
+        <v>165114</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.02004872628620505</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01671081536291657</v>
+        <v>0.01701826085527816</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.0236901268061255</v>
+        <v>0.02379546228855667</v>
       </c>
     </row>
     <row r="17">
@@ -3007,19 +3007,19 @@
         <v>3380302</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3369941</v>
+        <v>3369526</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3386295</v>
+        <v>3386195</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9958614135383542</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9928090691237115</v>
+        <v>0.9926868080558969</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9976269821270634</v>
+        <v>0.997597537906917</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3223</v>
@@ -3028,19 +3028,19 @@
         <v>3419474</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3397287</v>
+        <v>3394539</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3440510</v>
+        <v>3440166</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9647152887577111</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9584558507276586</v>
+        <v>0.9576805884656463</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9706501599208567</v>
+        <v>0.9705531550717701</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6441</v>
@@ -3049,19 +3049,19 @@
         <v>6799776</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6774509</v>
+        <v>6773778</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6822937</v>
+        <v>6820804</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.979951273713795</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9763098731938742</v>
+        <v>0.9762045377114433</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9832891846370834</v>
+        <v>0.9829817391447219</v>
       </c>
     </row>
     <row r="18">
@@ -3393,19 +3393,19 @@
         <v>4422</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>984</v>
+        <v>1344</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>13497</v>
+        <v>13952</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.006401992844893982</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.00142497721298948</v>
+        <v>0.001945276196571095</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.01954055712496282</v>
+        <v>0.02019923821191326</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>47</v>
@@ -3414,19 +3414,19 @@
         <v>23676</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>18015</v>
+        <v>17284</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>31894</v>
+        <v>31087</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.0324181720843562</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.02466685400162731</v>
+        <v>0.02366583717420753</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.04367071710627504</v>
+        <v>0.04256666578872678</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>51</v>
@@ -3435,19 +3435,19 @@
         <v>28098</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>20449</v>
+        <v>20610</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>37527</v>
+        <v>37983</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01977268085738606</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01439002769038951</v>
+        <v>0.01450374815241794</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.0264085849773793</v>
+        <v>0.02672899803825876</v>
       </c>
     </row>
     <row r="5">
@@ -3464,19 +3464,19 @@
         <v>686288</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>677213</v>
+        <v>676758</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>689726</v>
+        <v>689366</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9935980071551062</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9804594428750372</v>
+        <v>0.9798007617880862</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9985750227870106</v>
+        <v>0.9980547238034289</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1187</v>
@@ -3485,19 +3485,19 @@
         <v>706645</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>698427</v>
+        <v>699234</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>712306</v>
+        <v>713037</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.967581827915644</v>
+        <v>0.9675818279156438</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9563292828937249</v>
+        <v>0.9574333342112731</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9753331459983728</v>
+        <v>0.9763341628257927</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1913</v>
@@ -3506,19 +3506,19 @@
         <v>1392932</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1383503</v>
+        <v>1383047</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1400581</v>
+        <v>1400420</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.980227319142614</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9735914150226206</v>
+        <v>0.9732710019617413</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9856099723096104</v>
+        <v>0.985496251847582</v>
       </c>
     </row>
     <row r="6">
@@ -3613,7 +3613,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>5740</v>
+        <v>5156</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.001574301996411447</v>
@@ -3622,7 +3622,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.005479437764273735</v>
+        <v>0.004922200829729689</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>80</v>
@@ -3631,19 +3631,19 @@
         <v>47987</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>38146</v>
+        <v>38540</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>58709</v>
+        <v>59588</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.04501201556250016</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.03578115481913546</v>
+        <v>0.03615063947440404</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.05506949490285945</v>
+        <v>0.05589419052118725</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>82</v>
@@ -3652,19 +3652,19 @@
         <v>49636</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>39664</v>
+        <v>39061</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>60939</v>
+        <v>61229</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.02348403173738872</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01876595721397156</v>
+        <v>0.01848057182157735</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.02883165366498237</v>
+        <v>0.02896878820877062</v>
       </c>
     </row>
     <row r="8">
@@ -3681,16 +3681,16 @@
         <v>1045870</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1041779</v>
+        <v>1042363</v>
       </c>
       <c r="F8" s="5" t="n">
         <v>1047519</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.9984256980035886</v>
+        <v>0.9984256980035885</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9945205622357263</v>
+        <v>0.9950777991702703</v>
       </c>
       <c r="I8" s="6" t="n">
         <v>1</v>
@@ -3702,19 +3702,19 @@
         <v>1018107</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1007385</v>
+        <v>1006506</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1027948</v>
+        <v>1027554</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9549879844374999</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9449305050971406</v>
+        <v>0.9441058094788128</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9642188451808648</v>
+        <v>0.9638493605255961</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2390</v>
@@ -3723,19 +3723,19 @@
         <v>2063977</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>2052674</v>
+        <v>2052384</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>2073949</v>
+        <v>2074552</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.9765159682626112</v>
+        <v>0.9765159682626113</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9711683463350176</v>
+        <v>0.9710312117912291</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9812340427860284</v>
+        <v>0.9815194281784226</v>
       </c>
     </row>
     <row r="9">
@@ -3827,19 +3827,19 @@
         <v>3903</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>10057</v>
+        <v>9793</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.00487819436631132</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.001110733799731508</v>
+        <v>0.001106286626991231</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01257068893191903</v>
+        <v>0.01224042462071158</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>41</v>
@@ -3848,19 +3848,19 @@
         <v>27249</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>19895</v>
+        <v>19843</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>37992</v>
+        <v>36474</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.03382666182527991</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.0246972507513323</v>
+        <v>0.0246323254581868</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.04716204693033809</v>
+        <v>0.04527800028104752</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>45</v>
@@ -3869,19 +3869,19 @@
         <v>31152</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>22215</v>
+        <v>23063</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>40475</v>
+        <v>42022</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01940226268569781</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01383611666410566</v>
+        <v>0.01436396427923967</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.02520904101600805</v>
+        <v>0.02617243619407142</v>
       </c>
     </row>
     <row r="11">
@@ -3898,19 +3898,19 @@
         <v>796124</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>789970</v>
+        <v>790234</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>799138</v>
+        <v>799142</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9951218056336888</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9874293110680809</v>
+        <v>0.9877595753792882</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9988892662002685</v>
+        <v>0.9988937133730087</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>996</v>
@@ -3919,19 +3919,19 @@
         <v>778306</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>767563</v>
+        <v>769081</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>785660</v>
+        <v>785712</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9661733381747202</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.952837953069662</v>
+        <v>0.9547219997189524</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9753027492486678</v>
+        <v>0.9753676745418133</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1665</v>
@@ -3940,19 +3940,19 @@
         <v>1574429</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1565106</v>
+        <v>1563559</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1583366</v>
+        <v>1582518</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9805977373143023</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9747909589839919</v>
+        <v>0.9738275638059288</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9861638833358943</v>
+        <v>0.9856360357207605</v>
       </c>
     </row>
     <row r="12">
@@ -4044,19 +4044,19 @@
         <v>4793</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>1952</v>
+        <v>1858</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>11715</v>
+        <v>11162</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.004856682328839933</v>
+        <v>0.004856682328839932</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.00197823527191118</v>
+        <v>0.001882729448712514</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.01186897515343105</v>
+        <v>0.01130941858653547</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>88</v>
@@ -4065,19 +4065,19 @@
         <v>56030</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>45454</v>
+        <v>45274</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>68387</v>
+        <v>69855</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.05028283204038956</v>
+        <v>0.05028283204038955</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.04079180921947539</v>
+        <v>0.04062996367933306</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.06137260029465193</v>
+        <v>0.06269005423466073</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>94</v>
@@ -4086,19 +4086,19 @@
         <v>60823</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>49310</v>
+        <v>48798</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>74828</v>
+        <v>74957</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.02894579361759336</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.02346674858213308</v>
+        <v>0.02322312850965742</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.03561068360858038</v>
+        <v>0.03567227101759913</v>
       </c>
     </row>
     <row r="14">
@@ -4115,19 +4115,19 @@
         <v>982195</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>975273</v>
+        <v>975826</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>985036</v>
+        <v>985130</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.9951433176711602</v>
+        <v>0.9951433176711599</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9881310248465695</v>
+        <v>0.9886905814134647</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9980217647280889</v>
+        <v>0.9981172705512875</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1467</v>
@@ -4136,19 +4136,19 @@
         <v>1058261</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>1045904</v>
+        <v>1044436</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>1068837</v>
+        <v>1069017</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.9497171679596105</v>
+        <v>0.9497171679596103</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9386273997053485</v>
+        <v>0.937309945765339</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9592081907805245</v>
+        <v>0.9593700363206668</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2463</v>
@@ -4157,19 +4157,19 @@
         <v>2040456</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>2026451</v>
+        <v>2026322</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>2051969</v>
+        <v>2052481</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.9710542063824067</v>
+        <v>0.9710542063824066</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9643893163914201</v>
+        <v>0.964327728982401</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9765332514178672</v>
+        <v>0.9767768714903432</v>
       </c>
     </row>
     <row r="15">
@@ -4261,19 +4261,19 @@
         <v>14767</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>8636</v>
+        <v>7898</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>25411</v>
+        <v>24634</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.004188988346218044</v>
+        <v>0.004188988346218045</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.0024497651310508</v>
+        <v>0.002240306028318301</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.007208260936682797</v>
+        <v>0.006987857390882377</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>256</v>
@@ -4282,19 +4282,19 @@
         <v>154942</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>137156</v>
+        <v>137597</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>175055</v>
+        <v>175771</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.04169289001399736</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.03690687715610168</v>
+        <v>0.03702557464572784</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.04710526989040408</v>
+        <v>0.04729783000905444</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>272</v>
@@ -4303,19 +4303,19 @@
         <v>169709</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>149596</v>
+        <v>150343</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>193247</v>
+        <v>190690</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.02343557949299121</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.02065809261121276</v>
+        <v>0.02076133452034648</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.02668600576319236</v>
+        <v>0.02633293895339732</v>
       </c>
     </row>
     <row r="17">
@@ -4332,19 +4332,19 @@
         <v>3510476</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3499832</v>
+        <v>3500609</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3516607</v>
+        <v>3517345</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9958110116537818</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9927917390633172</v>
+        <v>0.9930121426091176</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9975502348689492</v>
+        <v>0.9977596939716816</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>5079</v>
@@ -4353,19 +4353,19 @@
         <v>3561318</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3541205</v>
+        <v>3540489</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3579104</v>
+        <v>3578663</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.9583071099860027</v>
+        <v>0.9583071099860028</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9528947301095958</v>
+        <v>0.9527021699909458</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9630931228438984</v>
+        <v>0.9629744253542721</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>8431</v>
@@ -4374,19 +4374,19 @@
         <v>7071794</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>7048256</v>
+        <v>7050813</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>7091907</v>
+        <v>7091160</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.9765644205070088</v>
+        <v>0.9765644205070089</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9733139942368076</v>
+        <v>0.9736670610466025</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.979341907388787</v>
+        <v>0.9792386654796537</v>
       </c>
     </row>
     <row r="18">
